--- a/output/Tables/Linear/HIA_walking_2019.xlsx
+++ b/output/Tables/Linear/HIA_walking_2019.xlsx
@@ -360,120 +360,120 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>disease</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>tot_cases</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>tot_cases_se</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low_cases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sup_cases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tot_daly</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>tot_daly_se</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>low_daly</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sup_daly</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>tot_medic_costs</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tot_medic_costs_se</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>disease</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>low_cases</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sup_cases</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>low_daly</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>sup_daly</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>low_medic</t>
+          <t>low_medic_costs</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>sup_medic</t>
+          <t>sup_medic_costs</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>social_cost</t>
+          <t>tot_soc_costs</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>low_social_cost</t>
+          <t>low_soc_costs</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>sup_social_cost</t>
+          <t>sup_soc_costs</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cc</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1267.294620949998</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>125.2926133695205</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>227.7233783692328</v>
+      </c>
+      <c r="E2">
+        <v>2119.988613615864</v>
+      </c>
+      <c r="F2">
         <v>1377.397544298486</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>130.6652894026395</v>
       </c>
-      <c r="E2">
+      <c r="H2">
+        <v>196.4386400115775</v>
+      </c>
+      <c r="I2">
+        <v>2669.059889885273</v>
+      </c>
+      <c r="J2">
         <v>33857043.09330007</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>3347317.458780111</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>cc</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>227.7233783692328</v>
-      </c>
-      <c r="I2">
-        <v>2119.988613615864</v>
-      </c>
-      <c r="J2">
-        <v>196.4386400115775</v>
-      </c>
-      <c r="K2">
-        <v>2669.059889885273</v>
       </c>
       <c r="L2">
         <v>6083857.776512401</v>
@@ -492,40 +492,40 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dem</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>2022.537982334396</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>222.8539027689605</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>1011.268991167198</v>
+      </c>
+      <c r="E3">
+        <v>2889.339974763427</v>
+      </c>
+      <c r="F3">
         <v>1691.709176897735</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>191.2703857455051</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>696.3628998858999</v>
+      </c>
+      <c r="I3">
+        <v>2798.179942811142</v>
+      </c>
+      <c r="J3">
         <v>46008694.02214289</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>5069480.580188314</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>dem</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>1011.268991167198</v>
-      </c>
-      <c r="I3">
-        <v>2889.339974763427</v>
-      </c>
-      <c r="J3">
-        <v>696.3628998858999</v>
-      </c>
-      <c r="K3">
-        <v>2798.179942811142</v>
       </c>
       <c r="L3">
         <v>23004347.01107145</v>
@@ -544,40 +544,40 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>4410.075241031361</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>611.1614356023339</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>2205.03762051568</v>
+      </c>
+      <c r="E4">
+        <v>5880.100321375134</v>
+      </c>
+      <c r="F4">
         <v>6890.707685447986</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>988.2426979960718</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>2632.774832809379</v>
+      </c>
+      <c r="I4">
+        <v>11373.87475452456</v>
+      </c>
+      <c r="J4">
         <v>207132413.9207608</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>28705030.30737041</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>2205.03762051568</v>
-      </c>
-      <c r="I4">
-        <v>5880.100321375134</v>
-      </c>
-      <c r="J4">
-        <v>2632.774832809379</v>
-      </c>
-      <c r="K4">
-        <v>11373.87475452456</v>
       </c>
       <c r="L4">
         <v>103566206.9603804</v>
@@ -596,40 +596,40 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>15151.74459599077</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1458.355729757156</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>9469.84037249424</v>
+      </c>
+      <c r="E5">
+        <v>19886.66478223801</v>
+      </c>
+      <c r="F5">
         <v>10543.29153858328</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>1009.683762419054</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>5037.505453380266</v>
+      </c>
+      <c r="I5">
+        <v>16974.14690037342</v>
+      </c>
+      <c r="J5">
         <v>317247228.3508562</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>30535052.26965532</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>cvd</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>9469.84037249424</v>
-      </c>
-      <c r="I5">
-        <v>19886.66478223801</v>
-      </c>
-      <c r="J5">
-        <v>5037.505453380266</v>
-      </c>
-      <c r="K5">
-        <v>16974.14690037342</v>
       </c>
       <c r="L5">
         <v>198279517.7192845</v>
@@ -648,40 +648,40 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>diab2</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>19467.49487884741</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1855.327802020311</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>10306.32081821338</v>
+      </c>
+      <c r="E6">
+        <v>28628.66893948153</v>
+      </c>
+      <c r="F6">
         <v>26695.1993758159</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>2658.221096933743</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>10466.74010716545</v>
+      </c>
+      <c r="I6">
+        <v>49218.50209154654</v>
+      </c>
+      <c r="J6">
         <v>710836108.0062356</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>67745439.36296965</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>diab2</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>10306.32081821338</v>
-      </c>
-      <c r="I6">
-        <v>28628.66893948153</v>
-      </c>
-      <c r="J6">
-        <v>10466.74010716545</v>
-      </c>
-      <c r="K6">
-        <v>49218.50209154654</v>
       </c>
       <c r="L6">
         <v>376324998.3562419</v>
@@ -700,40 +700,40 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mort</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>17600.00661721318</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1775.810313200508</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>6860.590041307699</v>
+      </c>
+      <c r="E7">
+        <v>24873.95502144247</v>
+      </c>
+      <c r="F7">
         <v>170322.4111237712</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>16604.0015673686</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>65501.90065132089</v>
+      </c>
+      <c r="I7">
+        <v>239571.5507567683</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>mort</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>6860.590041307699</v>
-      </c>
-      <c r="I7">
-        <v>24873.95502144247</v>
-      </c>
-      <c r="J7">
-        <v>65501.90065132089</v>
-      </c>
-      <c r="K7">
-        <v>239571.5507567683</v>
       </c>
       <c r="L7">
         <v>0</v>
